--- a/Code/Results/Cases/Case_0_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.640265338630829</v>
+        <v>2.96768027051047</v>
       </c>
       <c r="D2">
-        <v>5.212974091139023</v>
+        <v>9.728771743612775</v>
       </c>
       <c r="E2">
-        <v>6.636403838856006</v>
+        <v>13.20954494546152</v>
       </c>
       <c r="F2">
-        <v>23.30842616767098</v>
+        <v>27.76872353642566</v>
       </c>
       <c r="G2">
-        <v>31.66438874906102</v>
+        <v>27.98682674982453</v>
       </c>
       <c r="H2">
-        <v>9.362986277660278</v>
+        <v>13.48843247488505</v>
       </c>
       <c r="I2">
-        <v>16.60136491614551</v>
+        <v>19.31845659362894</v>
       </c>
       <c r="J2">
-        <v>4.902067134524257</v>
+        <v>9.46981976747378</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>27.41997368970399</v>
+        <v>21.72846864070457</v>
       </c>
       <c r="N2">
-        <v>19.89276523749228</v>
+        <v>17.47360446468254</v>
       </c>
       <c r="O2">
-        <v>17.22298016712363</v>
+        <v>20.54381159118376</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.435545075655378</v>
+        <v>2.882449125003153</v>
       </c>
       <c r="D3">
-        <v>5.287072670024182</v>
+        <v>9.768708863714499</v>
       </c>
       <c r="E3">
-        <v>6.849110085381438</v>
+        <v>13.29089653459492</v>
       </c>
       <c r="F3">
-        <v>22.25510480327671</v>
+        <v>27.66892435197116</v>
       </c>
       <c r="G3">
-        <v>29.72470821453455</v>
+        <v>27.55023661399635</v>
       </c>
       <c r="H3">
-        <v>9.098314674653373</v>
+        <v>13.48733439115702</v>
       </c>
       <c r="I3">
-        <v>15.82433318012679</v>
+        <v>19.22560426770237</v>
       </c>
       <c r="J3">
-        <v>5.030212798353039</v>
+        <v>9.515145135360529</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25.63352219617284</v>
+        <v>21.05999307995793</v>
       </c>
       <c r="N3">
-        <v>19.02465585083989</v>
+        <v>17.17474433459105</v>
       </c>
       <c r="O3">
-        <v>16.44638900061619</v>
+        <v>20.46115373467746</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.303431900203773</v>
+        <v>2.828186969592786</v>
       </c>
       <c r="D4">
-        <v>5.335889977159987</v>
+        <v>9.794701107102281</v>
       </c>
       <c r="E4">
-        <v>6.984278250295663</v>
+        <v>13.34335068796662</v>
       </c>
       <c r="F4">
-        <v>21.60548819653848</v>
+        <v>27.6158772931579</v>
       </c>
       <c r="G4">
-        <v>28.49582105848912</v>
+        <v>27.28896514734069</v>
       </c>
       <c r="H4">
-        <v>8.93938501817226</v>
+        <v>13.48958019405705</v>
       </c>
       <c r="I4">
-        <v>15.34178424913381</v>
+        <v>19.17384359585879</v>
       </c>
       <c r="J4">
-        <v>5.110911826239429</v>
+        <v>9.544312427348959</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>24.46872331152336</v>
+        <v>20.63826577681662</v>
       </c>
       <c r="N4">
-        <v>18.47356375184479</v>
+        <v>16.99048499217523</v>
       </c>
       <c r="O4">
-        <v>15.96595933871996</v>
+        <v>20.41598820084439</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.247997774379719</v>
+        <v>2.805607131517577</v>
       </c>
       <c r="D5">
-        <v>5.356590387657462</v>
+        <v>9.805663278172352</v>
       </c>
       <c r="E5">
-        <v>7.040495295475538</v>
+        <v>13.36535711874237</v>
       </c>
       <c r="F5">
-        <v>21.34042503882262</v>
+        <v>27.59634497980137</v>
       </c>
       <c r="G5">
-        <v>27.98595761283353</v>
+        <v>27.18435796623889</v>
       </c>
       <c r="H5">
-        <v>8.875586365813579</v>
+        <v>13.49122995981464</v>
       </c>
       <c r="I5">
-        <v>15.14405086018917</v>
+        <v>19.15408824526617</v>
       </c>
       <c r="J5">
-        <v>5.144315910758892</v>
+        <v>9.556535555646958</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.97692955097215</v>
+        <v>20.46379525394675</v>
       </c>
       <c r="N5">
-        <v>18.24473225435896</v>
+        <v>16.91530027709114</v>
       </c>
       <c r="O5">
-        <v>15.76955324009786</v>
+        <v>20.39900144105933</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.238697097595885</v>
+        <v>2.801830075210763</v>
       </c>
       <c r="D6">
-        <v>5.360075636955116</v>
+        <v>9.807505901875063</v>
       </c>
       <c r="E6">
-        <v>7.049898322268812</v>
+        <v>13.3690494152917</v>
       </c>
       <c r="F6">
-        <v>21.29640310070718</v>
+        <v>27.59322795943521</v>
       </c>
       <c r="G6">
-        <v>27.90076216879422</v>
+        <v>27.16710497064128</v>
       </c>
       <c r="H6">
-        <v>8.865052961791239</v>
+        <v>13.49154827063247</v>
       </c>
       <c r="I6">
-        <v>15.11116040748161</v>
+        <v>19.15088912824666</v>
       </c>
       <c r="J6">
-        <v>5.149894279230301</v>
+        <v>9.558585591586841</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.89423164278399</v>
+        <v>20.43467362032846</v>
       </c>
       <c r="N6">
-        <v>18.20648704258193</v>
+        <v>16.9028127771975</v>
       </c>
       <c r="O6">
-        <v>15.736911079966</v>
+        <v>20.39626684196474</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.302690737296138</v>
+        <v>2.82788431861117</v>
       </c>
       <c r="D7">
-        <v>5.33616591815053</v>
+        <v>9.794847447757862</v>
       </c>
       <c r="E7">
-        <v>6.985031832513242</v>
+        <v>13.34364491802651</v>
       </c>
       <c r="F7">
-        <v>21.60191429541699</v>
+        <v>27.61560541434108</v>
       </c>
       <c r="G7">
-        <v>28.48898095097003</v>
+        <v>27.28754663431188</v>
       </c>
       <c r="H7">
-        <v>8.938520606173073</v>
+        <v>13.48959946898073</v>
       </c>
       <c r="I7">
-        <v>15.33912156692614</v>
+        <v>19.17357173158505</v>
       </c>
       <c r="J7">
-        <v>5.111360210944222</v>
+        <v>9.544475906107666</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>24.46216022726717</v>
+        <v>20.63592307827573</v>
       </c>
       <c r="N7">
-        <v>18.47049447731899</v>
+        <v>16.98947129541588</v>
       </c>
       <c r="O7">
-        <v>15.96331268367671</v>
+        <v>20.41575335115297</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.571017050801549</v>
+        <v>2.938703261937857</v>
       </c>
       <c r="D8">
-        <v>5.237816572002251</v>
+        <v>9.742237003196147</v>
       </c>
       <c r="E8">
-        <v>6.708788267219218</v>
+        <v>13.2370760632535</v>
       </c>
       <c r="F8">
-        <v>22.94605284182335</v>
+        <v>27.73261468403218</v>
       </c>
       <c r="G8">
-        <v>31.00369243980031</v>
+        <v>27.83497330782886</v>
       </c>
       <c r="H8">
-        <v>9.271024017974433</v>
+        <v>13.48744810773176</v>
       </c>
       <c r="I8">
-        <v>16.33473071298531</v>
+        <v>19.28536216427558</v>
       </c>
       <c r="J8">
-        <v>4.945840095993235</v>
+        <v>9.485170957722261</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26.81806657043298</v>
+        <v>21.50044776447563</v>
       </c>
       <c r="N8">
-        <v>19.59735084496225</v>
+        <v>17.37077004203107</v>
       </c>
       <c r="O8">
-        <v>16.95611445003403</v>
+        <v>20.51416048319687</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.045856698698039</v>
+        <v>3.140007479825398</v>
       </c>
       <c r="D9">
-        <v>5.072677969605157</v>
+        <v>9.650723288290584</v>
       </c>
       <c r="E9">
-        <v>6.204115701088016</v>
+        <v>13.04790217089713</v>
       </c>
       <c r="F9">
-        <v>25.5447533883446</v>
+        <v>28.02656401193218</v>
       </c>
       <c r="G9">
-        <v>35.61990284478666</v>
+        <v>28.95548819400575</v>
       </c>
       <c r="H9">
-        <v>9.948657408061012</v>
+        <v>13.50636908956668</v>
       </c>
       <c r="I9">
-        <v>18.2336373034028</v>
+        <v>19.54539827266024</v>
       </c>
       <c r="J9">
-        <v>4.636722304217264</v>
+        <v>9.37944173035563</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30.90183350111599</v>
+        <v>23.09740890401267</v>
       </c>
       <c r="N9">
-        <v>21.65315602922337</v>
+        <v>18.10850323604079</v>
       </c>
       <c r="O9">
-        <v>18.86409621228577</v>
+        <v>20.75076860911644</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.363101576338142</v>
+        <v>3.277316211266564</v>
       </c>
       <c r="D10">
-        <v>4.970350423500152</v>
+        <v>9.590573575779514</v>
       </c>
       <c r="E10">
-        <v>5.85749130993135</v>
+        <v>12.92090512042861</v>
       </c>
       <c r="F10">
-        <v>27.41579831349563</v>
+        <v>28.28057446514243</v>
       </c>
       <c r="G10">
-        <v>38.84483262963777</v>
+        <v>29.79804656530331</v>
       </c>
       <c r="H10">
-        <v>10.45866465478961</v>
+        <v>13.53431480321853</v>
       </c>
       <c r="I10">
-        <v>19.58525235415314</v>
+        <v>19.76005955162619</v>
       </c>
       <c r="J10">
-        <v>4.418261693014062</v>
+        <v>9.30814268993776</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>33.5794176217508</v>
+        <v>24.20016031821839</v>
       </c>
       <c r="N10">
-        <v>23.05805967257201</v>
+        <v>18.63929182088354</v>
       </c>
       <c r="O10">
-        <v>20.23103536977678</v>
+        <v>20.95014269368189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.500558826461426</v>
+        <v>3.337335263754881</v>
       </c>
       <c r="D11">
-        <v>4.928445407862584</v>
+        <v>9.564744462909156</v>
       </c>
       <c r="E11">
-        <v>5.705572959050199</v>
+        <v>12.865716063064</v>
       </c>
       <c r="F11">
-        <v>28.25641647895372</v>
+        <v>28.40406427914127</v>
       </c>
       <c r="G11">
-        <v>40.28907624802591</v>
+        <v>30.18357872464424</v>
       </c>
       <c r="H11">
-        <v>10.69270759109775</v>
+        <v>13.5500557788445</v>
       </c>
       <c r="I11">
-        <v>20.18914458763528</v>
+        <v>19.86253427555567</v>
       </c>
       <c r="J11">
-        <v>4.320579246801787</v>
+        <v>9.277079047430883</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34.72840680565668</v>
+        <v>24.68463481784001</v>
       </c>
       <c r="N11">
-        <v>23.6724539591127</v>
+        <v>18.87730401731017</v>
       </c>
       <c r="O11">
-        <v>20.84371614723498</v>
+        <v>21.04612480188285</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.551627113934442</v>
+        <v>3.359700987927871</v>
       </c>
       <c r="D12">
-        <v>4.913293313907875</v>
+        <v>9.555183902348203</v>
       </c>
       <c r="E12">
-        <v>5.648935246725777</v>
+        <v>12.8451874925342</v>
       </c>
       <c r="F12">
-        <v>28.57309692293097</v>
+        <v>28.4519368812406</v>
       </c>
       <c r="G12">
-        <v>40.82866134689517</v>
+        <v>30.32973339364705</v>
       </c>
       <c r="H12">
-        <v>10.78158556041665</v>
+        <v>13.55644934066202</v>
       </c>
       <c r="I12">
-        <v>20.41640097104744</v>
+        <v>19.90200425241133</v>
       </c>
       <c r="J12">
-        <v>4.283818670611351</v>
+        <v>9.265512172211666</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>35.15365126779383</v>
+        <v>24.86548866751528</v>
       </c>
       <c r="N12">
-        <v>23.90143974890528</v>
+        <v>18.96685761791887</v>
       </c>
       <c r="O12">
-        <v>21.07431916037584</v>
+        <v>21.08320610077721</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.540672334502442</v>
+        <v>3.354900397232762</v>
       </c>
       <c r="D13">
-        <v>4.916523906006429</v>
+        <v>9.557233141143705</v>
       </c>
       <c r="E13">
-        <v>5.661092428768534</v>
+        <v>12.84959223331523</v>
       </c>
       <c r="F13">
-        <v>28.50496877878069</v>
+        <v>28.44157783905959</v>
       </c>
       <c r="G13">
-        <v>40.71277614628684</v>
+        <v>30.29825168208575</v>
       </c>
       <c r="H13">
-        <v>10.76243351041303</v>
+        <v>13.55505317119706</v>
       </c>
       <c r="I13">
-        <v>20.36734555986521</v>
+        <v>19.89347458081606</v>
       </c>
       <c r="J13">
-        <v>4.291725735805207</v>
+        <v>9.267994590775153</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>35.06250419271069</v>
+        <v>24.82665647825059</v>
       </c>
       <c r="N13">
-        <v>23.85228853633438</v>
+        <v>18.94759752804431</v>
       </c>
       <c r="O13">
-        <v>21.02471829086566</v>
+        <v>21.07518770796688</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.504779939281095</v>
+        <v>3.33918262192198</v>
       </c>
       <c r="D14">
-        <v>4.927184184260888</v>
+        <v>9.563953494054701</v>
       </c>
       <c r="E14">
-        <v>5.700895082269454</v>
+        <v>12.86401974914271</v>
       </c>
       <c r="F14">
-        <v>28.28250348132675</v>
+        <v>28.40798073823486</v>
       </c>
       <c r="G14">
-        <v>40.33361442727842</v>
+        <v>30.19560061715946</v>
       </c>
       <c r="H14">
-        <v>10.70001481392526</v>
+        <v>13.5505731240068</v>
       </c>
       <c r="I14">
-        <v>20.20785522921298</v>
+        <v>19.86576833542357</v>
       </c>
       <c r="J14">
-        <v>4.317550412624473</v>
+        <v>9.276123505281756</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34.76358892998645</v>
+        <v>24.69956673242186</v>
       </c>
       <c r="N14">
-        <v>23.69136695362912</v>
+        <v>18.88468364703407</v>
       </c>
       <c r="O14">
-        <v>20.86271657244111</v>
+        <v>21.04916092222202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.482666806225099</v>
+        <v>3.329507562114668</v>
       </c>
       <c r="D15">
-        <v>4.933808726874068</v>
+        <v>9.568098598815494</v>
       </c>
       <c r="E15">
-        <v>5.725393430852527</v>
+        <v>12.87290521642647</v>
       </c>
       <c r="F15">
-        <v>28.14601999995159</v>
+        <v>28.38754507077883</v>
       </c>
       <c r="G15">
-        <v>40.10041628638784</v>
+        <v>30.1327402683363</v>
       </c>
       <c r="H15">
-        <v>10.66181315044312</v>
+        <v>13.54788524178256</v>
       </c>
       <c r="I15">
-        <v>20.10994432115755</v>
+        <v>19.84888319089672</v>
       </c>
       <c r="J15">
-        <v>4.33339824990929</v>
+        <v>9.281128232963091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.57921394405817</v>
+        <v>24.62137740235497</v>
       </c>
       <c r="N15">
-        <v>23.59231647928518</v>
+        <v>18.84606967927996</v>
       </c>
       <c r="O15">
-        <v>20.76330063451443</v>
+        <v>21.03331370638283</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.353980564210462</v>
+        <v>3.273343704184127</v>
       </c>
       <c r="D16">
-        <v>4.973186526621347</v>
+        <v>9.592292412040312</v>
       </c>
       <c r="E16">
-        <v>5.867540419791015</v>
+        <v>12.92456373303235</v>
       </c>
       <c r="F16">
-        <v>27.36063794067267</v>
+        <v>28.272661193308</v>
       </c>
       <c r="G16">
-        <v>38.74941968620185</v>
+        <v>29.77288247971565</v>
       </c>
       <c r="H16">
-        <v>10.4434066104524</v>
+        <v>13.53334681250541</v>
       </c>
       <c r="I16">
-        <v>19.54555787036827</v>
+        <v>19.75345724188922</v>
       </c>
       <c r="J16">
-        <v>4.424678392170271</v>
+        <v>9.310200280543418</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>33.50294540524656</v>
+        <v>24.16814117231606</v>
       </c>
       <c r="N16">
-        <v>23.01739969885191</v>
+        <v>18.62366080583425</v>
       </c>
       <c r="O16">
-        <v>20.19080267136131</v>
+        <v>20.94397428686265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.273280020565848</v>
+        <v>3.238255091955496</v>
       </c>
       <c r="D17">
-        <v>4.998566288077873</v>
+        <v>9.60752715407963</v>
       </c>
       <c r="E17">
-        <v>5.956258139862511</v>
+        <v>12.95691526256864</v>
       </c>
       <c r="F17">
-        <v>26.87602776131369</v>
+        <v>28.20419507744638</v>
       </c>
       <c r="G17">
-        <v>37.90751787760021</v>
+        <v>29.55258102385211</v>
       </c>
       <c r="H17">
-        <v>10.3099105608871</v>
+        <v>13.52520182045004</v>
       </c>
       <c r="I17">
-        <v>19.19644538778022</v>
+        <v>19.69613214323925</v>
       </c>
       <c r="J17">
-        <v>4.481100228364608</v>
+        <v>9.328385492254446</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>32.82505620515767</v>
+        <v>23.88559487677704</v>
       </c>
       <c r="N17">
-        <v>22.65828703703498</v>
+        <v>18.4862786156291</v>
       </c>
       <c r="O17">
-        <v>19.83717584053705</v>
+        <v>20.89050386945996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.226217289732135</v>
+        <v>3.217843635305888</v>
       </c>
       <c r="D18">
-        <v>5.013598039818605</v>
+        <v>9.616434101794615</v>
       </c>
       <c r="E18">
-        <v>6.007824109600739</v>
+        <v>12.97576614771843</v>
       </c>
       <c r="F18">
-        <v>26.59630642000849</v>
+        <v>28.16556451805383</v>
       </c>
       <c r="G18">
-        <v>37.4223267878013</v>
+        <v>29.42609045396533</v>
       </c>
       <c r="H18">
-        <v>10.23332099367465</v>
+        <v>13.52080226485005</v>
       </c>
       <c r="I18">
-        <v>18.99461609279829</v>
+        <v>19.66361615323029</v>
       </c>
       <c r="J18">
-        <v>4.513713126631482</v>
+        <v>9.33897420705685</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>32.42864738050142</v>
+        <v>23.72147250240288</v>
       </c>
       <c r="N18">
-        <v>22.44941528363564</v>
+        <v>18.40694021676022</v>
       </c>
       <c r="O18">
-        <v>19.6329213472715</v>
+        <v>20.86024823177984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.210171682420791</v>
+        <v>3.210893614646826</v>
       </c>
       <c r="D19">
-        <v>5.01876065826313</v>
+        <v>9.619474633540637</v>
       </c>
       <c r="E19">
-        <v>6.025374210930718</v>
+        <v>12.98219052532207</v>
       </c>
       <c r="F19">
-        <v>26.50143287290858</v>
+        <v>28.15261450978504</v>
       </c>
       <c r="G19">
-        <v>37.26095126932927</v>
+        <v>29.38330586543428</v>
       </c>
       <c r="H19">
-        <v>10.20742379879372</v>
+        <v>13.51936171356655</v>
       </c>
       <c r="I19">
-        <v>18.92610657601076</v>
+        <v>19.65268594889069</v>
       </c>
       <c r="J19">
-        <v>4.524783298117491</v>
+        <v>9.342581556366019</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>32.29331064604951</v>
+        <v>23.66563152183276</v>
       </c>
       <c r="N19">
-        <v>22.37830052854608</v>
+        <v>18.3800252069867</v>
       </c>
       <c r="O19">
-        <v>19.56362028839276</v>
+        <v>20.85009066056266</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.281937569615407</v>
+        <v>3.242014160528364</v>
       </c>
       <c r="D20">
-        <v>4.995819314967709</v>
+        <v>9.605890453407975</v>
       </c>
       <c r="E20">
-        <v>5.946757920509809</v>
+        <v>12.95344623042698</v>
       </c>
       <c r="F20">
-        <v>26.92771851370522</v>
+        <v>28.21140608262968</v>
       </c>
       <c r="G20">
-        <v>37.9976396453353</v>
+        <v>29.57601080002762</v>
       </c>
       <c r="H20">
-        <v>10.32410171574169</v>
+        <v>13.52603936665736</v>
       </c>
       <c r="I20">
-        <v>19.233716233088</v>
+        <v>19.70218751835554</v>
       </c>
       <c r="J20">
-        <v>4.475077513685125</v>
+        <v>9.326436294125399</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>32.89789134955965</v>
+        <v>23.91583999952654</v>
       </c>
       <c r="N20">
-        <v>22.69675620869796</v>
+        <v>18.50093688153605</v>
       </c>
       <c r="O20">
-        <v>19.87490955133351</v>
+        <v>20.89614440570923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.515349074180643</v>
+        <v>3.343809223606537</v>
       </c>
       <c r="D21">
-        <v>4.924033150168972</v>
+        <v>9.561973583775615</v>
       </c>
       <c r="E21">
-        <v>5.689179337928643</v>
+        <v>12.85977199556585</v>
       </c>
       <c r="F21">
-        <v>28.34789233335345</v>
+        <v>28.41781917046113</v>
       </c>
       <c r="G21">
-        <v>40.44518136130561</v>
+        <v>30.22574858801426</v>
       </c>
       <c r="H21">
-        <v>10.71834217704667</v>
+        <v>13.55187729996599</v>
       </c>
       <c r="I21">
-        <v>20.25474704299896</v>
+        <v>19.87388851815739</v>
       </c>
       <c r="J21">
-        <v>4.309958962002476</v>
+        <v>9.273730526523639</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>34.8516543528444</v>
+        <v>24.7369678149063</v>
       </c>
       <c r="N21">
-        <v>23.73873401958136</v>
+        <v>18.90317924715989</v>
       </c>
       <c r="O21">
-        <v>20.91033911626097</v>
+        <v>21.05678588116871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.662165432227289</v>
+        <v>3.408222875395778</v>
       </c>
       <c r="D22">
-        <v>4.881318254376133</v>
+        <v>9.534555775606302</v>
       </c>
       <c r="E22">
-        <v>5.526068254218846</v>
+        <v>12.8007085590602</v>
       </c>
       <c r="F22">
-        <v>29.26645153309952</v>
+        <v>28.55917378668322</v>
       </c>
       <c r="G22">
-        <v>42.00219288482408</v>
+        <v>30.6512628581675</v>
       </c>
       <c r="H22">
-        <v>10.9774511226495</v>
+        <v>13.5712850036457</v>
       </c>
       <c r="I22">
-        <v>21.01552237510892</v>
+        <v>19.98996708344594</v>
       </c>
       <c r="J22">
-        <v>4.203376160484828</v>
+        <v>9.240427780135088</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>36.07116057143669</v>
+        <v>25.25837893331994</v>
       </c>
       <c r="N22">
-        <v>24.39828376424379</v>
+        <v>19.16267340801188</v>
       </c>
       <c r="O22">
-        <v>21.57883887539732</v>
+        <v>21.16604560298678</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.584329804618313</v>
+        <v>3.374040920346357</v>
       </c>
       <c r="D23">
-        <v>4.903714387443876</v>
+        <v>9.549071688611047</v>
       </c>
       <c r="E23">
-        <v>5.6126202083734</v>
+        <v>12.8320346971692</v>
       </c>
       <c r="F23">
-        <v>28.77710894974922</v>
+        <v>28.48315097035919</v>
       </c>
       <c r="G23">
-        <v>41.1750536138126</v>
+        <v>30.4241300006765</v>
       </c>
       <c r="H23">
-        <v>10.83903865138128</v>
+        <v>13.56069705952985</v>
       </c>
       <c r="I23">
-        <v>20.59337090551832</v>
+        <v>19.927670212561</v>
       </c>
       <c r="J23">
-        <v>4.26014435510074</v>
+        <v>9.25809772812233</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>35.42551175396895</v>
+        <v>24.98152804609281</v>
       </c>
       <c r="N23">
-        <v>24.04826538978723</v>
+        <v>19.02451269730234</v>
       </c>
       <c r="O23">
-        <v>21.22282083532638</v>
+        <v>21.10734949212162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.278025569142139</v>
+        <v>3.240315427821687</v>
       </c>
       <c r="D24">
-        <v>4.997059852798838</v>
+        <v>9.606629943853758</v>
       </c>
       <c r="E24">
-        <v>5.951051226829209</v>
+        <v>12.95501379616165</v>
       </c>
       <c r="F24">
-        <v>26.90435257936386</v>
+        <v>28.20814370608652</v>
       </c>
       <c r="G24">
-        <v>37.95691133102726</v>
+        <v>29.56541767597987</v>
       </c>
       <c r="H24">
-        <v>10.31768539579276</v>
+        <v>13.52565982991406</v>
       </c>
       <c r="I24">
-        <v>19.21686956521318</v>
+        <v>19.69944850745936</v>
       </c>
       <c r="J24">
-        <v>4.477799836101486</v>
+        <v>9.327317109754969</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>32.86498339733546</v>
+        <v>23.90217141032969</v>
       </c>
       <c r="N24">
-        <v>22.67937180313441</v>
+        <v>18.49431098076904</v>
       </c>
       <c r="O24">
-        <v>19.85785309157366</v>
+        <v>20.89359280590667</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.922943158146964</v>
+        <v>3.087354626509685</v>
       </c>
       <c r="D25">
-        <v>5.114179693916817</v>
+        <v>9.674234520509771</v>
       </c>
       <c r="E25">
-        <v>6.336543062301573</v>
+        <v>13.09696719916833</v>
       </c>
       <c r="F25">
-        <v>24.84751248616298</v>
+        <v>27.94025869001536</v>
       </c>
       <c r="G25">
-        <v>34.406431824621</v>
+        <v>28.64829234691243</v>
       </c>
       <c r="H25">
-        <v>9.762974846540409</v>
+        <v>13.49877792428289</v>
       </c>
       <c r="I25">
-        <v>17.72692950975472</v>
+        <v>19.47080579613275</v>
       </c>
       <c r="J25">
-        <v>4.71876999756057</v>
+        <v>9.40691939455292</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>29.85406019478808</v>
+        <v>22.67708084714791</v>
       </c>
       <c r="N25">
-        <v>21.11481791317376</v>
+        <v>17.91053905459153</v>
       </c>
       <c r="O25">
-        <v>18.35339215856521</v>
+        <v>20.68219094432716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.96768027051047</v>
+        <v>3.640265338630816</v>
       </c>
       <c r="D2">
-        <v>9.728771743612775</v>
+        <v>5.212974091139039</v>
       </c>
       <c r="E2">
-        <v>13.20954494546152</v>
+        <v>6.636403838855945</v>
       </c>
       <c r="F2">
-        <v>27.76872353642566</v>
+        <v>23.30842616767102</v>
       </c>
       <c r="G2">
-        <v>27.98682674982453</v>
+        <v>31.66438874906102</v>
       </c>
       <c r="H2">
-        <v>13.48843247488505</v>
+        <v>9.362986277660312</v>
       </c>
       <c r="I2">
-        <v>19.31845659362894</v>
+        <v>16.60136491614551</v>
       </c>
       <c r="J2">
-        <v>9.46981976747378</v>
+        <v>4.902067134524191</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.72846864070457</v>
+        <v>27.41997368970398</v>
       </c>
       <c r="N2">
-        <v>17.47360446468254</v>
+        <v>19.89276523749226</v>
       </c>
       <c r="O2">
-        <v>20.54381159118376</v>
+        <v>17.22298016712364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.882449125003153</v>
+        <v>3.435545075655385</v>
       </c>
       <c r="D3">
-        <v>9.768708863714499</v>
+        <v>5.287072670024245</v>
       </c>
       <c r="E3">
-        <v>13.29089653459492</v>
+        <v>6.849110085381506</v>
       </c>
       <c r="F3">
-        <v>27.66892435197116</v>
+        <v>22.25510480327671</v>
       </c>
       <c r="G3">
-        <v>27.55023661399635</v>
+        <v>29.72470821453456</v>
       </c>
       <c r="H3">
-        <v>13.48733439115702</v>
+        <v>9.098314674653373</v>
       </c>
       <c r="I3">
-        <v>19.22560426770237</v>
+        <v>15.82433318012678</v>
       </c>
       <c r="J3">
-        <v>9.515145135360529</v>
+        <v>5.030212798353003</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.05999307995793</v>
+        <v>25.63352219617285</v>
       </c>
       <c r="N3">
-        <v>17.17474433459105</v>
+        <v>19.02465585083987</v>
       </c>
       <c r="O3">
-        <v>20.46115373467746</v>
+        <v>16.44638900061617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.828186969592786</v>
+        <v>3.303431900203942</v>
       </c>
       <c r="D4">
-        <v>9.794701107102281</v>
+        <v>5.335889977159739</v>
       </c>
       <c r="E4">
-        <v>13.34335068796662</v>
+        <v>6.984278250295595</v>
       </c>
       <c r="F4">
-        <v>27.6158772931579</v>
+        <v>21.60548819653842</v>
       </c>
       <c r="G4">
-        <v>27.28896514734069</v>
+        <v>28.49582105848911</v>
       </c>
       <c r="H4">
-        <v>13.48958019405705</v>
+        <v>8.93938501817226</v>
       </c>
       <c r="I4">
-        <v>19.17384359585879</v>
+        <v>15.3417842491338</v>
       </c>
       <c r="J4">
-        <v>9.544312427348959</v>
+        <v>5.110911826239495</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.63826577681662</v>
+        <v>24.46872331152336</v>
       </c>
       <c r="N4">
-        <v>16.99048499217523</v>
+        <v>18.4735637518448</v>
       </c>
       <c r="O4">
-        <v>20.41598820084439</v>
+        <v>15.96595933871996</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.805607131517577</v>
+        <v>3.247997774379718</v>
       </c>
       <c r="D5">
-        <v>9.805663278172352</v>
+        <v>5.356590387657654</v>
       </c>
       <c r="E5">
-        <v>13.36535711874237</v>
+        <v>7.04049529547567</v>
       </c>
       <c r="F5">
-        <v>27.59634497980137</v>
+        <v>21.34042503882263</v>
       </c>
       <c r="G5">
-        <v>27.18435796623889</v>
+        <v>27.9859576128335</v>
       </c>
       <c r="H5">
-        <v>13.49122995981464</v>
+        <v>8.875586365813572</v>
       </c>
       <c r="I5">
-        <v>19.15408824526617</v>
+        <v>15.14405086018913</v>
       </c>
       <c r="J5">
-        <v>9.556535555646958</v>
+        <v>5.144315910758892</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.46379525394675</v>
+        <v>23.97692955097215</v>
       </c>
       <c r="N5">
-        <v>16.91530027709114</v>
+        <v>18.24473225435898</v>
       </c>
       <c r="O5">
-        <v>20.39900144105933</v>
+        <v>15.76955324009782</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.801830075210763</v>
+        <v>3.238697097595876</v>
       </c>
       <c r="D6">
-        <v>9.807505901875063</v>
+        <v>5.360075636955183</v>
       </c>
       <c r="E6">
-        <v>13.3690494152917</v>
+        <v>7.049898322268746</v>
       </c>
       <c r="F6">
-        <v>27.59322795943521</v>
+        <v>21.29640310070711</v>
       </c>
       <c r="G6">
-        <v>27.16710497064128</v>
+        <v>27.90076216879419</v>
       </c>
       <c r="H6">
-        <v>13.49154827063247</v>
+        <v>8.865052961791163</v>
       </c>
       <c r="I6">
-        <v>19.15088912824666</v>
+        <v>15.11116040748157</v>
       </c>
       <c r="J6">
-        <v>9.558585591586841</v>
+        <v>5.149894279230234</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.43467362032846</v>
+        <v>23.89423164278401</v>
       </c>
       <c r="N6">
-        <v>16.9028127771975</v>
+        <v>18.20648704258194</v>
       </c>
       <c r="O6">
-        <v>20.39626684196474</v>
+        <v>15.73691107996593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.82788431861117</v>
+        <v>3.302690737296088</v>
       </c>
       <c r="D7">
-        <v>9.794847447757862</v>
+        <v>5.336165918150529</v>
       </c>
       <c r="E7">
-        <v>13.34364491802651</v>
+        <v>6.985031832513237</v>
       </c>
       <c r="F7">
-        <v>27.61560541434108</v>
+        <v>21.60191429541699</v>
       </c>
       <c r="G7">
-        <v>27.28754663431188</v>
+        <v>28.48898095097005</v>
       </c>
       <c r="H7">
-        <v>13.48959946898073</v>
+        <v>8.938520606173077</v>
       </c>
       <c r="I7">
-        <v>19.17357173158505</v>
+        <v>15.33912156692615</v>
       </c>
       <c r="J7">
-        <v>9.544475906107666</v>
+        <v>5.11136021094419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.63592307827573</v>
+        <v>24.46216022726718</v>
       </c>
       <c r="N7">
-        <v>16.98947129541588</v>
+        <v>18.47049447731901</v>
       </c>
       <c r="O7">
-        <v>20.41575335115297</v>
+        <v>15.9633126836767</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.938703261937857</v>
+        <v>3.57101705080157</v>
       </c>
       <c r="D8">
-        <v>9.742237003196147</v>
+        <v>5.237816572002316</v>
       </c>
       <c r="E8">
-        <v>13.2370760632535</v>
+        <v>6.708788267219222</v>
       </c>
       <c r="F8">
-        <v>27.73261468403218</v>
+        <v>22.94605284182333</v>
       </c>
       <c r="G8">
-        <v>27.83497330782886</v>
+        <v>31.00369243980037</v>
       </c>
       <c r="H8">
-        <v>13.48744810773176</v>
+        <v>9.271024017974403</v>
       </c>
       <c r="I8">
-        <v>19.28536216427558</v>
+        <v>16.3347307129853</v>
       </c>
       <c r="J8">
-        <v>9.485170957722261</v>
+        <v>4.945840095993235</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.50044776447563</v>
+        <v>26.818066570433</v>
       </c>
       <c r="N8">
-        <v>17.37077004203107</v>
+        <v>19.59735084496225</v>
       </c>
       <c r="O8">
-        <v>20.51416048319687</v>
+        <v>16.95611445003401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.140007479825398</v>
+        <v>4.045856698698139</v>
       </c>
       <c r="D9">
-        <v>9.650723288290584</v>
+        <v>5.072677969605088</v>
       </c>
       <c r="E9">
-        <v>13.04790217089713</v>
+        <v>6.204115701088011</v>
       </c>
       <c r="F9">
-        <v>28.02656401193218</v>
+        <v>25.54475338834458</v>
       </c>
       <c r="G9">
-        <v>28.95548819400575</v>
+        <v>35.61990284478663</v>
       </c>
       <c r="H9">
-        <v>13.50636908956668</v>
+        <v>9.948657408061019</v>
       </c>
       <c r="I9">
-        <v>19.54539827266024</v>
+        <v>18.23363730340281</v>
       </c>
       <c r="J9">
-        <v>9.37944173035563</v>
+        <v>4.636722304217296</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.09740890401267</v>
+        <v>30.90183350111599</v>
       </c>
       <c r="N9">
-        <v>18.10850323604079</v>
+        <v>21.65315602922337</v>
       </c>
       <c r="O9">
-        <v>20.75076860911644</v>
+        <v>18.86409621228577</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.277316211266564</v>
+        <v>4.363101576338136</v>
       </c>
       <c r="D10">
-        <v>9.590573575779514</v>
+        <v>4.970350423500144</v>
       </c>
       <c r="E10">
-        <v>12.92090512042861</v>
+        <v>5.85749130993135</v>
       </c>
       <c r="F10">
-        <v>28.28057446514243</v>
+        <v>27.41579831349565</v>
       </c>
       <c r="G10">
-        <v>29.79804656530331</v>
+        <v>38.84483262963762</v>
       </c>
       <c r="H10">
-        <v>13.53431480321853</v>
+        <v>10.45866465478963</v>
       </c>
       <c r="I10">
-        <v>19.76005955162619</v>
+        <v>19.58525235415317</v>
       </c>
       <c r="J10">
-        <v>9.30814268993776</v>
+        <v>4.418261693014096</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.20016031821839</v>
+        <v>33.57941762175075</v>
       </c>
       <c r="N10">
-        <v>18.63929182088354</v>
+        <v>23.05805967257201</v>
       </c>
       <c r="O10">
-        <v>20.95014269368189</v>
+        <v>20.2310353697768</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.337335263754881</v>
+        <v>4.500558826461502</v>
       </c>
       <c r="D11">
-        <v>9.564744462909156</v>
+        <v>4.928445407862591</v>
       </c>
       <c r="E11">
-        <v>12.865716063064</v>
+        <v>5.705572959050199</v>
       </c>
       <c r="F11">
-        <v>28.40406427914127</v>
+        <v>28.25641647895371</v>
       </c>
       <c r="G11">
-        <v>30.18357872464424</v>
+        <v>40.28907624802593</v>
       </c>
       <c r="H11">
-        <v>13.5500557788445</v>
+        <v>10.69270759109775</v>
       </c>
       <c r="I11">
-        <v>19.86253427555567</v>
+        <v>20.18914458763527</v>
       </c>
       <c r="J11">
-        <v>9.277079047430883</v>
+        <v>4.320579246801755</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.68463481784001</v>
+        <v>34.72840680565672</v>
       </c>
       <c r="N11">
-        <v>18.87730401731017</v>
+        <v>23.67245395911275</v>
       </c>
       <c r="O11">
-        <v>21.04612480188285</v>
+        <v>20.84371614723496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.359700987927871</v>
+        <v>4.55162711393445</v>
       </c>
       <c r="D12">
-        <v>9.555183902348203</v>
+        <v>4.91329331390766</v>
       </c>
       <c r="E12">
-        <v>12.8451874925342</v>
+        <v>5.648935246725649</v>
       </c>
       <c r="F12">
-        <v>28.4519368812406</v>
+        <v>28.57309692293099</v>
       </c>
       <c r="G12">
-        <v>30.32973339364705</v>
+        <v>40.82866134689516</v>
       </c>
       <c r="H12">
-        <v>13.55644934066202</v>
+        <v>10.78158556041666</v>
       </c>
       <c r="I12">
-        <v>19.90200425241133</v>
+        <v>20.41640097104743</v>
       </c>
       <c r="J12">
-        <v>9.265512172211666</v>
+        <v>4.28381867061135</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.86548866751528</v>
+        <v>35.15365126779383</v>
       </c>
       <c r="N12">
-        <v>18.96685761791887</v>
+        <v>23.90143974890526</v>
       </c>
       <c r="O12">
-        <v>21.08320610077721</v>
+        <v>21.07431916037586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.354900397232762</v>
+        <v>4.540672334502489</v>
       </c>
       <c r="D13">
-        <v>9.557233141143705</v>
+        <v>4.916523906006552</v>
       </c>
       <c r="E13">
-        <v>12.84959223331523</v>
+        <v>5.661092428768527</v>
       </c>
       <c r="F13">
-        <v>28.44157783905959</v>
+        <v>28.50496877878066</v>
       </c>
       <c r="G13">
-        <v>30.29825168208575</v>
+        <v>40.71277614628675</v>
       </c>
       <c r="H13">
-        <v>13.55505317119706</v>
+        <v>10.76243351041303</v>
       </c>
       <c r="I13">
-        <v>19.89347458081606</v>
+        <v>20.36734555986518</v>
       </c>
       <c r="J13">
-        <v>9.267994590775153</v>
+        <v>4.291725735805239</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.82665647825059</v>
+        <v>35.06250419271064</v>
       </c>
       <c r="N13">
-        <v>18.94759752804431</v>
+        <v>23.85228853633438</v>
       </c>
       <c r="O13">
-        <v>21.07518770796688</v>
+        <v>21.02471829086562</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.33918262192198</v>
+        <v>4.504779939281065</v>
       </c>
       <c r="D14">
-        <v>9.563953494054701</v>
+        <v>4.927184184260764</v>
       </c>
       <c r="E14">
-        <v>12.86401974914271</v>
+        <v>5.700895082269458</v>
       </c>
       <c r="F14">
-        <v>28.40798073823486</v>
+        <v>28.28250348132674</v>
       </c>
       <c r="G14">
-        <v>30.19560061715946</v>
+        <v>40.33361442727843</v>
       </c>
       <c r="H14">
-        <v>13.5505731240068</v>
+        <v>10.70001481392525</v>
       </c>
       <c r="I14">
-        <v>19.86576833542357</v>
+        <v>20.20785522921299</v>
       </c>
       <c r="J14">
-        <v>9.276123505281756</v>
+        <v>4.317550412624541</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.69956673242186</v>
+        <v>34.76358892998646</v>
       </c>
       <c r="N14">
-        <v>18.88468364703407</v>
+        <v>23.69136695362913</v>
       </c>
       <c r="O14">
-        <v>21.04916092222202</v>
+        <v>20.86271657244112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.329507562114668</v>
+        <v>4.482666806225099</v>
       </c>
       <c r="D15">
-        <v>9.568098598815494</v>
+        <v>4.933808726873885</v>
       </c>
       <c r="E15">
-        <v>12.87290521642647</v>
+        <v>5.725393430852457</v>
       </c>
       <c r="F15">
-        <v>28.38754507077883</v>
+        <v>28.14601999995157</v>
       </c>
       <c r="G15">
-        <v>30.1327402683363</v>
+        <v>40.10041628638783</v>
       </c>
       <c r="H15">
-        <v>13.54788524178256</v>
+        <v>10.66181315044312</v>
       </c>
       <c r="I15">
-        <v>19.84888319089672</v>
+        <v>20.10994432115755</v>
       </c>
       <c r="J15">
-        <v>9.281128232963091</v>
+        <v>4.333398249909322</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.62137740235497</v>
+        <v>34.57921394405815</v>
       </c>
       <c r="N15">
-        <v>18.84606967927996</v>
+        <v>23.59231647928518</v>
       </c>
       <c r="O15">
-        <v>21.03331370638283</v>
+        <v>20.76330063451442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.273343704184127</v>
+        <v>4.353980564210365</v>
       </c>
       <c r="D16">
-        <v>9.592292412040312</v>
+        <v>4.973186526621292</v>
       </c>
       <c r="E16">
-        <v>12.92456373303235</v>
+        <v>5.867540419791021</v>
       </c>
       <c r="F16">
-        <v>28.272661193308</v>
+        <v>27.36063794067263</v>
       </c>
       <c r="G16">
-        <v>29.77288247971565</v>
+        <v>38.74941968620179</v>
       </c>
       <c r="H16">
-        <v>13.53334681250541</v>
+        <v>10.44340661045238</v>
       </c>
       <c r="I16">
-        <v>19.75345724188922</v>
+        <v>19.54555787036825</v>
       </c>
       <c r="J16">
-        <v>9.310200280543418</v>
+        <v>4.424678392170303</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.16814117231606</v>
+        <v>33.50294540524659</v>
       </c>
       <c r="N16">
-        <v>18.62366080583425</v>
+        <v>23.01739969885194</v>
       </c>
       <c r="O16">
-        <v>20.94397428686265</v>
+        <v>20.19080267136129</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.238255091955496</v>
+        <v>4.273280020565856</v>
       </c>
       <c r="D17">
-        <v>9.60752715407963</v>
+        <v>4.99856628807788</v>
       </c>
       <c r="E17">
-        <v>12.95691526256864</v>
+        <v>5.95625813986251</v>
       </c>
       <c r="F17">
-        <v>28.20419507744638</v>
+        <v>26.87602776131367</v>
       </c>
       <c r="G17">
-        <v>29.55258102385211</v>
+        <v>37.90751787760019</v>
       </c>
       <c r="H17">
-        <v>13.52520182045004</v>
+        <v>10.30991056088709</v>
       </c>
       <c r="I17">
-        <v>19.69613214323925</v>
+        <v>19.19644538778021</v>
       </c>
       <c r="J17">
-        <v>9.328385492254446</v>
+        <v>4.481100228364674</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.88559487677704</v>
+        <v>32.82505620515765</v>
       </c>
       <c r="N17">
-        <v>18.4862786156291</v>
+        <v>22.65828703703498</v>
       </c>
       <c r="O17">
-        <v>20.89050386945996</v>
+        <v>19.83717584053704</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.217843635305888</v>
+        <v>4.226217289732129</v>
       </c>
       <c r="D18">
-        <v>9.616434101794615</v>
+        <v>5.013598039818532</v>
       </c>
       <c r="E18">
-        <v>12.97576614771843</v>
+        <v>6.007824109600675</v>
       </c>
       <c r="F18">
-        <v>28.16556451805383</v>
+        <v>26.59630642000846</v>
       </c>
       <c r="G18">
-        <v>29.42609045396533</v>
+        <v>37.42232678780125</v>
       </c>
       <c r="H18">
-        <v>13.52080226485005</v>
+        <v>10.23332099367465</v>
       </c>
       <c r="I18">
-        <v>19.66361615323029</v>
+        <v>18.99461609279828</v>
       </c>
       <c r="J18">
-        <v>9.33897420705685</v>
+        <v>4.513713126631482</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.72147250240288</v>
+        <v>32.42864738050142</v>
       </c>
       <c r="N18">
-        <v>18.40694021676022</v>
+        <v>22.44941528363566</v>
       </c>
       <c r="O18">
-        <v>20.86024823177984</v>
+        <v>19.63292134727149</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.210893614646826</v>
+        <v>4.210171682420792</v>
       </c>
       <c r="D19">
-        <v>9.619474633540637</v>
+        <v>5.018760658263125</v>
       </c>
       <c r="E19">
-        <v>12.98219052532207</v>
+        <v>6.025374210930719</v>
       </c>
       <c r="F19">
-        <v>28.15261450978504</v>
+        <v>26.50143287290855</v>
       </c>
       <c r="G19">
-        <v>29.38330586543428</v>
+        <v>37.26095126932932</v>
       </c>
       <c r="H19">
-        <v>13.51936171356655</v>
+        <v>10.20742379879371</v>
       </c>
       <c r="I19">
-        <v>19.65268594889069</v>
+        <v>18.92610657601075</v>
       </c>
       <c r="J19">
-        <v>9.342581556366019</v>
+        <v>4.524783298117423</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.66563152183276</v>
+        <v>32.29331064604953</v>
       </c>
       <c r="N19">
-        <v>18.3800252069867</v>
+        <v>22.37830052854606</v>
       </c>
       <c r="O19">
-        <v>20.85009066056266</v>
+        <v>19.56362028839274</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.242014160528364</v>
+        <v>4.281937569615506</v>
       </c>
       <c r="D20">
-        <v>9.605890453407975</v>
+        <v>4.995819314967653</v>
       </c>
       <c r="E20">
-        <v>12.95344623042698</v>
+        <v>5.946757920509809</v>
       </c>
       <c r="F20">
-        <v>28.21140608262968</v>
+        <v>26.92771851370525</v>
       </c>
       <c r="G20">
-        <v>29.57601080002762</v>
+        <v>37.99763964533535</v>
       </c>
       <c r="H20">
-        <v>13.52603936665736</v>
+        <v>10.32410171574167</v>
       </c>
       <c r="I20">
-        <v>19.70218751835554</v>
+        <v>19.23371623308802</v>
       </c>
       <c r="J20">
-        <v>9.326436294125399</v>
+        <v>4.475077513685191</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.91583999952654</v>
+        <v>32.89789134955966</v>
       </c>
       <c r="N20">
-        <v>18.50093688153605</v>
+        <v>22.69675620869796</v>
       </c>
       <c r="O20">
-        <v>20.89614440570923</v>
+        <v>19.87490955133352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.343809223606537</v>
+        <v>4.515349074180577</v>
       </c>
       <c r="D21">
-        <v>9.561973583775615</v>
+        <v>4.924033150168793</v>
       </c>
       <c r="E21">
-        <v>12.85977199556585</v>
+        <v>5.689179337928641</v>
       </c>
       <c r="F21">
-        <v>28.41781917046113</v>
+        <v>28.34789233335346</v>
       </c>
       <c r="G21">
-        <v>30.22574858801426</v>
+        <v>40.44518136130572</v>
       </c>
       <c r="H21">
-        <v>13.55187729996599</v>
+        <v>10.7183421770467</v>
       </c>
       <c r="I21">
-        <v>19.87388851815739</v>
+        <v>20.25474704299899</v>
       </c>
       <c r="J21">
-        <v>9.273730526523639</v>
+        <v>4.30995896200251</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.7369678149063</v>
+        <v>34.85165435284443</v>
       </c>
       <c r="N21">
-        <v>18.90317924715989</v>
+        <v>23.73873401958136</v>
       </c>
       <c r="O21">
-        <v>21.05678588116871</v>
+        <v>20.910339116261</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.408222875395778</v>
+        <v>4.662165432227273</v>
       </c>
       <c r="D22">
-        <v>9.534555775606302</v>
+        <v>4.881318254376081</v>
       </c>
       <c r="E22">
-        <v>12.8007085590602</v>
+        <v>5.526068254218783</v>
       </c>
       <c r="F22">
-        <v>28.55917378668322</v>
+        <v>29.2664515330995</v>
       </c>
       <c r="G22">
-        <v>30.6512628581675</v>
+        <v>42.00219288482408</v>
       </c>
       <c r="H22">
-        <v>13.5712850036457</v>
+        <v>10.9774511226495</v>
       </c>
       <c r="I22">
-        <v>19.98996708344594</v>
+        <v>21.01552237510892</v>
       </c>
       <c r="J22">
-        <v>9.240427780135088</v>
+        <v>4.203376160484861</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.25837893331994</v>
+        <v>36.07116057143667</v>
       </c>
       <c r="N22">
-        <v>19.16267340801188</v>
+        <v>24.39828376424379</v>
       </c>
       <c r="O22">
-        <v>21.16604560298678</v>
+        <v>21.5788388753973</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.374040920346357</v>
+        <v>4.584329804618334</v>
       </c>
       <c r="D23">
-        <v>9.549071688611047</v>
+        <v>4.903714387443872</v>
       </c>
       <c r="E23">
-        <v>12.8320346971692</v>
+        <v>5.612620208373334</v>
       </c>
       <c r="F23">
-        <v>28.48315097035919</v>
+        <v>28.77710894974919</v>
       </c>
       <c r="G23">
-        <v>30.4241300006765</v>
+        <v>41.17505361381254</v>
       </c>
       <c r="H23">
-        <v>13.56069705952985</v>
+        <v>10.83903865138127</v>
       </c>
       <c r="I23">
-        <v>19.927670212561</v>
+        <v>20.59337090551827</v>
       </c>
       <c r="J23">
-        <v>9.25809772812233</v>
+        <v>4.260144355100775</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.98152804609281</v>
+        <v>35.42551175396893</v>
       </c>
       <c r="N23">
-        <v>19.02451269730234</v>
+        <v>24.04826538978723</v>
       </c>
       <c r="O23">
-        <v>21.10734949212162</v>
+        <v>21.22282083532635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.240315427821687</v>
+        <v>4.278025569142021</v>
       </c>
       <c r="D24">
-        <v>9.606629943853758</v>
+        <v>4.99705985279872</v>
       </c>
       <c r="E24">
-        <v>12.95501379616165</v>
+        <v>5.951051226829143</v>
       </c>
       <c r="F24">
-        <v>28.20814370608652</v>
+        <v>26.90435257936391</v>
       </c>
       <c r="G24">
-        <v>29.56541767597987</v>
+        <v>37.95691133102728</v>
       </c>
       <c r="H24">
-        <v>13.52565982991406</v>
+        <v>10.3176853957928</v>
       </c>
       <c r="I24">
-        <v>19.69944850745936</v>
+        <v>19.21686956521321</v>
       </c>
       <c r="J24">
-        <v>9.327317109754969</v>
+        <v>4.477799836101519</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.90217141032969</v>
+        <v>32.86498339733541</v>
       </c>
       <c r="N24">
-        <v>18.49431098076904</v>
+        <v>22.67937180313438</v>
       </c>
       <c r="O24">
-        <v>20.89359280590667</v>
+        <v>19.85785309157372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.087354626509685</v>
+        <v>3.922943158146885</v>
       </c>
       <c r="D25">
-        <v>9.674234520509771</v>
+        <v>5.114179693916752</v>
       </c>
       <c r="E25">
-        <v>13.09696719916833</v>
+        <v>6.336543062301573</v>
       </c>
       <c r="F25">
-        <v>27.94025869001536</v>
+        <v>24.84751248616299</v>
       </c>
       <c r="G25">
-        <v>28.64829234691243</v>
+        <v>34.40643182462104</v>
       </c>
       <c r="H25">
-        <v>13.49877792428289</v>
+        <v>9.762974846540418</v>
       </c>
       <c r="I25">
-        <v>19.47080579613275</v>
+        <v>17.72692950975474</v>
       </c>
       <c r="J25">
-        <v>9.40691939455292</v>
+        <v>4.718769997560638</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.67708084714791</v>
+        <v>29.85406019478809</v>
       </c>
       <c r="N25">
-        <v>17.91053905459153</v>
+        <v>21.11481791317377</v>
       </c>
       <c r="O25">
-        <v>20.68219094432716</v>
+        <v>18.35339215856523</v>
       </c>
     </row>
   </sheetData>
